--- a/程序员客栈项目/因卓科技教育平台/原型设计/最终确认文档归档/因卓教育项目计划-全职.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/原型设计/最终确认文档归档/因卓教育项目计划-全职.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="阶段拆分说明" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>各阶段任务</t>
   </si>
@@ -327,14 +327,13 @@
   <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>实际完成时间：</t>
+      <t>匹配</t>
     </r>
     <r>
       <rPr>
@@ -342,19 +341,25 @@
         <color indexed="8"/>
         <rFont val="等线"/>
       </rPr>
-      <t xml:space="preserve">2017/5/29
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>延迟原因：</t>
+      <t>个测试，一个负责</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>PC WEB</t>
     </r>
     <r>
       <rPr>
@@ -364,7 +369,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>客户最终还有一些功能需要和学校确认</t>
+      <t>端；一个负责</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>APP</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,7 +390,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>匹配</t>
+      <t>后台分为两块，在</t>
     </r>
     <r>
       <rPr>
@@ -385,7 +398,7 @@
         <color indexed="8"/>
         <rFont val="等线"/>
       </rPr>
-      <t>2</t>
+      <t>UI</t>
     </r>
     <r>
       <rPr>
@@ -395,15 +408,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>个测试，一个负责</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>PC WEB</t>
+      <t>设计期间，后台开发完成后台管理部分的开发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UI</t>
     </r>
     <r>
       <rPr>
@@ -413,36 +424,21 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>端；一个负责</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>APP</t>
+      <t>设计完成后，和前端一起合作完成前端的接口开发</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>后台分为两块，在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>UI</t>
+      <t>因卓教育阶段划分说明：</t>
     </r>
     <r>
       <rPr>
@@ -452,122 +448,146 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>设计期间，后台开发完成后台管理部分的开发</t>
+      <t xml:space="preserve">
+阶段一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>题库管理、学生管理、班级管理、作业管理、试卷管理、教师管理
+阶段二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>试卷管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>试卷列表、组卷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>答题卡编辑、试卷审阅、学情分析、所有涉及到消息推送和消息列表的地方</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>UI</t>
-    </r>
-    <r>
-      <rPr>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>设计完成后，和前端一起合作完成前端的接口开发</t>
+      <t>实际完成时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+      </rPr>
+      <t xml:space="preserve">2017/5/29
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>延迟原因：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户最后还有一些功能需要和学校确认</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>因卓教育阶段划分说明：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-阶段一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>题库管理、学生管理、班级管理、作业管理、试卷管理、教师管理
-阶段二</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>试卷管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>试卷列表、组卷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>答题卡编辑、试卷审阅、学情分析、所有涉及到消息推送和消息列表的地方</t>
-    </r>
+    <t>客栈子任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.proginn.com/outsource/item/37844</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.proginn.com/outsource/item/39456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.proginn.com/outsource/item/39458</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给每一个子阶段增加对应的客栈子任务链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -615,6 +635,12 @@
       <color indexed="8"/>
       <name val="等线"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -630,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -651,19 +677,6 @@
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -731,10 +744,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -742,45 +756,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -788,8 +790,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3397,7 +3422,7 @@
   <dimension ref="A1:IV14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" customHeight="1"/>
@@ -3408,210 +3433,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.05" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="A1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" ht="16.05" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="16.05" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:16" ht="16.05" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16" ht="16.05" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="16.05" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:16" ht="16.05" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16" ht="16.05" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" ht="16.05" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16" ht="13.8" customHeight="1">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="13.8" customHeight="1">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="13.8" customHeight="1">
-      <c r="B13" s="19"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="13.8" customHeight="1">
-      <c r="B14" s="19"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3630,8 +3659,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" customHeight="1"/>
@@ -3641,19 +3673,23 @@
     <col min="3" max="3" width="11" style="3" customWidth="1"/>
     <col min="4" max="4" width="28" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.19921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="57.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="256" width="8.796875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.796875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="57.296875" style="3" customWidth="1"/>
+    <col min="8" max="256" width="8.796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.05" customHeight="1">
+    <row r="1" spans="1:7" ht="16.05" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="16.05" customHeight="1">
+    <row r="2" spans="1:7" ht="16.05" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3669,11 +3705,12 @@
       <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="26" t="s">
         <v>24</v>
       </c>
+      <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:6" ht="28.8">
+    <row r="3" spans="1:7" ht="43.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -3692,11 +3729,14 @@
         <f t="shared" ref="E3:E10" si="0">DATE(YEAR(B3),MONTH(B3),DAY(B3)+D3)</f>
         <v>42882</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>25</v>
+      <c r="F3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.05" customHeight="1">
+    <row r="4" spans="1:7" ht="19.05" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3708,16 +3748,19 @@
         <v>26.75</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D10" si="1">C4*1</f>
+        <f t="shared" ref="D4:D9" si="1">C4*1</f>
         <v>26.75</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>42917</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="29" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="19.05" customHeight="1">
+    <row r="5" spans="1:7" ht="19.05" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -3735,9 +3778,10 @@
         <f t="shared" si="0"/>
         <v>42960</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="19.05" customHeight="1">
+    <row r="6" spans="1:7" ht="19.05" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -3755,9 +3799,10 @@
         <f t="shared" si="0"/>
         <v>42960</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="19.05" customHeight="1">
+    <row r="7" spans="1:7" ht="19.05" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -3775,10 +3820,11 @@
         <f t="shared" si="0"/>
         <v>42952</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="16.05" customHeight="1">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:7" ht="28.8">
+      <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5">
@@ -3795,12 +3841,15 @@
         <f t="shared" ref="E8" si="2">DATE(YEAR(B8),MONTH(B8),DAY(B8)+D8)</f>
         <v>42918</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>27</v>
+      <c r="F8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.05" customHeight="1">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5">
@@ -3817,36 +3866,46 @@
         <f t="shared" si="0"/>
         <v>42960</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
+      <c r="F9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.05" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:7" ht="28.8">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>42965</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>13.901</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <f>C10*0.5</f>
         <v>6.9504999999999999</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>42971</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>26</v>
-      </c>
+      <c r="F10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="G9" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3857,8 +3916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1"/>
@@ -3881,7 +3940,7 @@
   <dimension ref="A1:IV9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" customHeight="1"/>
@@ -3922,146 +3981,146 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>42891</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <f>8.365+3.69</f>
         <v>12.055</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <f t="shared" ref="D3:D9" si="0">C3*1.5</f>
         <v>18.0825</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <f t="shared" ref="E3:E9" si="1">DATE(YEAR(B3),MONTH(B3),DAY(B3)+D3)</f>
         <v>42909</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>42921</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <f>11.75+8.125</f>
         <v>19.875</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <f t="shared" si="0"/>
         <v>29.8125</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <f t="shared" si="1"/>
         <v>42950</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>42993</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>33</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>49.5</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <f t="shared" si="1"/>
         <v>43042</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>42993</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>33</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>49.5</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <f t="shared" si="1"/>
         <v>43042</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="19.05" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>42993</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>28.626000000000001</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>42.939</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <f t="shared" si="1"/>
         <v>43035</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>42993</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>40.130000000000003</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>60.195000000000007</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <f t="shared" si="1"/>
         <v>43053</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="16.05" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>43056</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>11.00653</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>16.509795</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <f t="shared" si="1"/>
         <v>43072</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/程序员客栈项目/因卓科技教育平台/原型设计/最终确认文档归档/因卓教育项目计划-全职.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/原型设计/最终确认文档归档/因卓教育项目计划-全职.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="阶段拆分说明" sheetId="1" r:id="rId1"/>
@@ -1398,25 +1398,25 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42891</c:v>
+                  <c:v>42922</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42921</c:v>
+                  <c:v>42943</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42993</c:v>
+                  <c:v>42981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42993</c:v>
+                  <c:v>42981</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42993</c:v>
+                  <c:v>42981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42993</c:v>
+                  <c:v>42981</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43056</c:v>
+                  <c:v>43057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,22 +1492,22 @@
                   <c:v>18.0825</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.8125</c:v>
+                  <c:v>19.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.939</c:v>
+                  <c:v>28.626000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.195000000000007</c:v>
+                  <c:v>40.130000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.509795</c:v>
+                  <c:v>11.00653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3663,7 +3663,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" customHeight="1"/>
@@ -3916,8 +3916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1"/>
@@ -3939,8 +3939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" customHeight="1"/>
@@ -3985,19 +3985,19 @@
         <v>10</v>
       </c>
       <c r="B3" s="8">
-        <v>42891</v>
+        <v>42922</v>
       </c>
       <c r="C3" s="9">
         <f>8.365+3.69</f>
         <v>12.055</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" ref="D3:D9" si="0">C3*1.5</f>
+        <f t="shared" ref="D3" si="0">C3*1.5</f>
         <v>18.0825</v>
       </c>
       <c r="E3" s="8">
         <f t="shared" ref="E3:E9" si="1">DATE(YEAR(B3),MONTH(B3),DAY(B3)+D3)</f>
-        <v>42909</v>
+        <v>42940</v>
       </c>
       <c r="F3" s="10"/>
     </row>
@@ -4006,19 +4006,19 @@
         <v>11</v>
       </c>
       <c r="B4" s="8">
-        <v>42921</v>
+        <v>42943</v>
       </c>
       <c r="C4" s="9">
         <f>11.75+8.125</f>
         <v>19.875</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" si="0"/>
-        <v>29.8125</v>
+        <f t="shared" ref="D4:D9" si="2">C4*1</f>
+        <v>19.875</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" si="1"/>
-        <v>42950</v>
+        <v>42962</v>
       </c>
       <c r="F4" s="10"/>
     </row>
@@ -4027,18 +4027,18 @@
         <v>12</v>
       </c>
       <c r="B5" s="8">
-        <v>42993</v>
+        <v>42981</v>
       </c>
       <c r="C5" s="9">
         <v>33</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="1"/>
-        <v>43042</v>
+        <v>43014</v>
       </c>
       <c r="F5" s="10"/>
     </row>
@@ -4047,18 +4047,18 @@
         <v>13</v>
       </c>
       <c r="B6" s="8">
-        <v>42993</v>
+        <v>42981</v>
       </c>
       <c r="C6" s="9">
         <v>33</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>49.5</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="1"/>
-        <v>43042</v>
+        <v>43014</v>
       </c>
       <c r="F6" s="10"/>
     </row>
@@ -4067,18 +4067,18 @@
         <v>14</v>
       </c>
       <c r="B7" s="8">
-        <v>42993</v>
+        <v>42981</v>
       </c>
       <c r="C7" s="9">
         <v>28.626000000000001</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>42.939</v>
+        <f t="shared" si="2"/>
+        <v>28.626000000000001</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="1"/>
-        <v>43035</v>
+        <v>43009</v>
       </c>
       <c r="F7" s="10"/>
     </row>
@@ -4087,18 +4087,18 @@
         <v>15</v>
       </c>
       <c r="B8" s="8">
-        <v>42993</v>
+        <v>42981</v>
       </c>
       <c r="C8" s="9">
         <v>40.130000000000003</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>60.195000000000007</v>
+        <f t="shared" si="2"/>
+        <v>40.130000000000003</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="1"/>
-        <v>43053</v>
+        <v>43021</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -4107,18 +4107,18 @@
         <v>16</v>
       </c>
       <c r="B9" s="12">
-        <v>43056</v>
+        <v>43057</v>
       </c>
       <c r="C9" s="13">
         <v>11.00653</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" si="0"/>
-        <v>16.509795</v>
+        <f t="shared" si="2"/>
+        <v>11.00653</v>
       </c>
       <c r="E9" s="12">
         <f t="shared" si="1"/>
-        <v>43072</v>
+        <v>43068</v>
       </c>
       <c r="F9" s="10"/>
     </row>

--- a/程序员客栈项目/因卓科技教育平台/原型设计/最终确认文档归档/因卓教育项目计划-全职.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/原型设计/最终确认文档归档/因卓教育项目计划-全职.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="阶段拆分说明" sheetId="1" r:id="rId1"/>
@@ -3659,11 +3659,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" customHeight="1"/>
@@ -3939,8 +3939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" customHeight="1"/>
